--- a/PairCorrelation/PairCorrInput.xlsx
+++ b/PairCorrelation/PairCorrInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro/PairCorrelation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE22862-2C53-9E49-9103-1B3879930C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85430069-B621-A346-879E-7195409F12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,10 +444,10 @@
     <t>Set to 'linear' or 'log' to set the axis for the middle chart on both sides</t>
   </si>
   <si>
-    <t xml:space="preserve">api'or 'disk'- this sets the source for the price data, load from disk or get from APIs online. </t>
-  </si>
-  <si>
     <t>price'or 'yoy'to display assets as price or YoY % change (first derivative of price wrt time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api'or 'disk'- this sets the source for the price data, load from excel files on disk or get from APIs online. If using 'disk', a dialogue will popup to load each excel file for the two assets. </t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,6 +818,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +1009,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1030,19 +1042,20 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1401,7 +1414,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,10 +1522,10 @@
       <c r="F6" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K11" s="26"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K12" s="26"/>
+      <c r="K12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1524,7 +1537,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A14" sqref="A14:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,13 +1558,13 @@
       <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1654,101 +1667,101 @@
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
@@ -1770,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1786,7 +1799,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/PairCorrelation/PairCorrInput.xlsx
+++ b/PairCorrelation/PairCorrInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro/PairCorrelation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85430069-B621-A346-879E-7195409F12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E052D1-8A6B-884B-AD79-15BB5259F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PairCorrInput" sheetId="1" r:id="rId1"/>
@@ -1043,6 +1043,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1055,7 +1056,6 @@
     <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1411,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1461,10 +1461,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="14">
-        <v>912</v>
+        <v>535</v>
       </c>
       <c r="F2" s="14">
-        <v>183</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1496,7 +1496,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14">
-        <v>730</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14">
-        <v>1460</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1526,6 +1526,12 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K12" s="22"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1536,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA61F3-842A-4942-933D-229B0FCFDC48}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1558,13 +1564,13 @@
       <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1667,101 +1673,101 @@
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">

--- a/PairCorrelation/PairCorrInput.xlsx
+++ b/PairCorrelation/PairCorrInput.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro/PairCorrelation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro-dev/PairCorrelation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E052D1-8A6B-884B-AD79-15BB5259F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38459D15-5D3B-C644-B8AB-42AFE584E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PairCorrInput" sheetId="1" r:id="rId1"/>
     <sheet name="Information" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,12 +55,6 @@
     <t>api2</t>
   </si>
   <si>
-    <t>coingecko</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -397,9 +395,6 @@
     </r>
   </si>
   <si>
-    <t>XAUUSD,FX_IDC</t>
-  </si>
-  <si>
     <t>No limit yet recommend &lt; 5 entries.</t>
   </si>
   <si>
@@ -444,16 +439,28 @@
     <t>Set to 'linear' or 'log' to set the axis for the middle chart on both sides</t>
   </si>
   <si>
-    <t>price'or 'yoy'to display assets as price or YoY % change (first derivative of price wrt time)</t>
-  </si>
-  <si>
     <t xml:space="preserve">api'or 'disk'- this sets the source for the price data, load from excel files on disk or get from APIs online. If using 'disk', a dialogue will popup to load each excel file for the two assets. </t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>NQ1!,CME_MINI</t>
+  </si>
+  <si>
+    <t>BTCUSD,INDEX</t>
+  </si>
+  <si>
+    <t>price'or 'yoy'to display assets as price or YoY % change (first derivative of price wrt time, using rolling period of 1 year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1009,7 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1044,6 +1051,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1411,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1449,69 +1457,67 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="14">
-        <v>535</v>
-      </c>
-      <c r="F2" s="14">
-        <v>90</v>
+        <v>250</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14">
-        <v>525</v>
-      </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
@@ -1527,11 +1533,17 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K12" s="22"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22" s="22"/>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f>10*365</f>
+        <v>3650</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1542,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA61F3-842A-4942-933D-229B0FCFDC48}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1571,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1582,230 +1594,230 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="17"/>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1816,4 +1828,102 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B17BC-28C6-CE4E-93C8-28D0D3A6FD55}">
+  <dimension ref="E4:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="24">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="24">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="24">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="24">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="24">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="24">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="24">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="24">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="24">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="24">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="24">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="24">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="24">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PairCorrelation/PairCorrInput.xlsx
+++ b/PairCorrelation/PairCorrInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro-dev/PairCorrelation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/PairCorrelation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38459D15-5D3B-C644-B8AB-42AFE584E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20A4C0-DCA1-6147-9B96-8CD94F5723FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>NumDays</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>price'or 'yoy'to display assets as price or YoY % change (first derivative of price wrt time, using rolling period of 1 year)</t>
+  </si>
+  <si>
+    <t>XAUUSD,FX_IDC</t>
+  </si>
+  <si>
+    <t>Asset Tickers</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1428,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,14 +1468,14 @@
       <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>43</v>
+      <c r="C2" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="14">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -1517,7 +1523,9 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14">
+        <v>365</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
@@ -1552,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA61F3-842A-4942-933D-229B0FCFDC48}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1818,6 +1826,16 @@
       </c>
       <c r="C26" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
